--- a/Projects/NESTLEBEVUS/Data/NestleRTD_Template_v1.2.xlsx
+++ b/Projects/NESTLEBEVUS/Data/NestleRTD_Template_v1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <sheet name="Shelf Position" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$16</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="df" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="e" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ee" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
@@ -52,6 +52,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__0" vbProcedure="false">KPIs!$A$1:$E$68</definedName>
   </definedNames>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="89">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -100,9 +102,6 @@
     <t xml:space="preserve">Share of shelf for all Nestle Products and Brand level empties (linear)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead/Anchor by Bay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lead-Anchor by Bay</t>
   </si>
   <si>
@@ -250,9 +249,6 @@
     <t xml:space="preserve">context_type_fk</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead/Anchor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Left hand leading products on each shelf and Nestle's share</t>
   </si>
   <si>
@@ -265,7 +261,7 @@
     <t xml:space="preserve">scene_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Count of Facings</t>
+    <t xml:space="preserve">Count of Facings of left most products</t>
   </si>
   <si>
     <t xml:space="preserve">Count of all Lead products in this bay</t>
@@ -278,6 +274,9 @@
   </si>
   <si>
     <t xml:space="preserve">Right Door Handle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of Facings of right most product</t>
   </si>
   <si>
     <t xml:space="preserve">brand_name</t>
@@ -735,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:24"/>
@@ -743,17 +742,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="53.7732793522267"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="127.684210526316"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="130.04048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="47.4534412955466"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,7 +1791,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -1810,7 +1809,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
@@ -1828,237 +1827,237 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -2087,7 +2086,13 @@
       <c r="F24" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E68"/>
+  <autoFilter ref="A1:E16">
+    <filterColumn colId="2">
+      <customFilters and="true">
+        <customFilter operator="equal" val=" Lead-Anchor by Bay"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2113,21 +2118,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="35.5627530364373"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="68.0202429149798"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="175.676113360324"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="178.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="122.222672064777"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="124.473684210526"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="1023" min="19" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="8.89068825910931"/>
@@ -2144,49 +2149,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">TRUE()</f>
@@ -2214,27 +2219,27 @@
         <v>7</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
@@ -2250,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="20" t="n">
         <f aca="false">TRUE()</f>
@@ -2264,27 +2269,27 @@
         <v>10</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="K3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2307,23 +2312,23 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="54.3076923076923"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="1022" min="13" style="2" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.46153846153846"/>
@@ -2343,31 +2348,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="n">
         <v>3</v>
       </c>
@@ -2375,35 +2380,35 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="H2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="n">
         <v>3</v>
       </c>
@@ -2411,31 +2416,31 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="K3" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="L3" s="20"/>
     </row>
@@ -2457,21 +2462,21 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.6963562753036"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
@@ -2490,28 +2495,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,35 +2524,35 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,35 +2560,35 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,35 +2596,35 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,35 +2632,35 @@
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,35 +2668,35 @@
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2712,23 +2717,23 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.6963562753036"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
@@ -2747,28 +2752,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,35 +2781,35 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,35 +2817,35 @@
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,35 +2853,35 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,35 +2889,35 @@
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,35 +2925,35 @@
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2978,10 +2983,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="120.935222672065"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="123.080971659919"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.89068825910931"/>
   </cols>
@@ -3000,16 +3005,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,22 +3022,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -3054,22 +3059,22 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="97.1578947368421"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="172.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="98.8704453441295"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="175.352226720648"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.6356275303644"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
@@ -3089,31 +3094,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,35 +3126,35 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M2" s="6"/>
     </row>
